--- a/assets/excel/Daftar Pegawai.xlsx
+++ b/assets/excel/Daftar Pegawai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1287">
   <si>
     <t>DAFTAR PEGAWAI</t>
   </si>
@@ -1112,189 +1112,198 @@
     <t xml:space="preserve">Pembina Utama Madya </t>
   </si>
   <si>
+    <t>IV/D</t>
+  </si>
+  <si>
+    <t>Inspektur</t>
+  </si>
+  <si>
+    <t>11050003330967</t>
+  </si>
+  <si>
+    <t>Drs. Aripuddin, M.Si.</t>
+  </si>
+  <si>
+    <t>Letkol (Inf)</t>
+  </si>
+  <si>
+    <t>Kasubbag Tata Usaha Inspektorat</t>
+  </si>
+  <si>
+    <t>196601061987031001</t>
+  </si>
+  <si>
+    <t>Ade Hermana, S.E., M.M.</t>
+  </si>
+  <si>
+    <t>Pembina Tk. I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auditor Madya</t>
+  </si>
+  <si>
+    <t>197908232014031001</t>
+  </si>
+  <si>
+    <t>Purwo Hadi Wibowo, S.E.</t>
+  </si>
+  <si>
+    <t>Auditor Ahli Pertama</t>
+  </si>
+  <si>
+    <t>198901162014031002</t>
+  </si>
+  <si>
+    <t>Anwar Suhartono, S.E.</t>
+  </si>
+  <si>
+    <t>198505302014031001</t>
+  </si>
+  <si>
+    <t>Chandra Kurniawan Nababan, S.E.</t>
+  </si>
+  <si>
+    <t>198803022015031003</t>
+  </si>
+  <si>
+    <t>Mohammad Nuhwana Saputra, S.E.</t>
+  </si>
+  <si>
+    <t>198909032015032002</t>
+  </si>
+  <si>
+    <t>Nilam Ayuningtyas, S.Psi.</t>
+  </si>
+  <si>
+    <t>Analis Hubungan Kelembagaan</t>
+  </si>
+  <si>
+    <t>199408182018012001</t>
+  </si>
+  <si>
+    <t>Safira Insani, S.Sos.</t>
+  </si>
+  <si>
+    <t>199502282019022007</t>
+  </si>
+  <si>
+    <t>Nur Aisyah</t>
+  </si>
+  <si>
+    <t>198908172019022004</t>
+  </si>
+  <si>
+    <t>Siti Huriah Azmi</t>
+  </si>
+  <si>
+    <t>199308042019022005</t>
+  </si>
+  <si>
+    <t>Fadia Naufa Nasution</t>
+  </si>
+  <si>
+    <t>199704162018122001</t>
+  </si>
+  <si>
+    <t>Siti Nur Arofah</t>
+  </si>
+  <si>
+    <t>199703142018121001</t>
+  </si>
+  <si>
+    <t>Teguh Darmawanto</t>
+  </si>
+  <si>
+    <t>199003052017010321054</t>
+  </si>
+  <si>
+    <t>Devia Elita Sari</t>
+  </si>
+  <si>
+    <t>Staf Inspektorat</t>
+  </si>
+  <si>
+    <t>Drs. Suhardi Alius, M.H.</t>
+  </si>
+  <si>
+    <t>Komjen Pol</t>
+  </si>
+  <si>
+    <t>IV/E</t>
+  </si>
+  <si>
+    <t>Kepala BNPT</t>
+  </si>
+  <si>
+    <t>Deputi Bidang Pencegahan, Perlindungan, dan Deradikalisasi</t>
+  </si>
+  <si>
+    <t>198509142008121001</t>
+  </si>
+  <si>
+    <t>Rikhi Benindo Maghaz, S.H.</t>
+  </si>
+  <si>
+    <t>Jaksa Pratama</t>
+  </si>
+  <si>
+    <t>Kasubbag Tata Usaha Kepala</t>
+  </si>
+  <si>
+    <t>199203032018012001</t>
+  </si>
+  <si>
+    <t>Nurul Indah Ristyani, S.Sos.</t>
+  </si>
+  <si>
+    <t>197605052017010312067</t>
+  </si>
+  <si>
+    <t>Abdul Hamid Majid, S.P</t>
+  </si>
+  <si>
+    <t>Staf Khusus Kepala BNPT</t>
+  </si>
+  <si>
+    <t>198604222017010321035</t>
+  </si>
+  <si>
+    <t>Vita Afrilia</t>
+  </si>
+  <si>
+    <t>Staf TU Kepala</t>
+  </si>
+  <si>
+    <t>199105162017010311006</t>
+  </si>
+  <si>
+    <t>Yogi Sumarna</t>
+  </si>
+  <si>
+    <t>197706012017010311024</t>
+  </si>
+  <si>
+    <t>Anugrah Wanto Wibowo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. A. Adang Supriyadi </t>
+  </si>
+  <si>
+    <t>Marsda TNI</t>
+  </si>
+  <si>
+    <t>Sekretaris Utama</t>
+  </si>
+  <si>
+    <t>Dadang Hendrayudha</t>
+  </si>
+  <si>
+    <t>Brigjen TNI</t>
+  </si>
+  <si>
     <t>IV/C</t>
   </si>
   <si>
-    <t>Inspektur</t>
-  </si>
-  <si>
-    <t>11050003330967</t>
-  </si>
-  <si>
-    <t>Drs. Aripuddin, M.Si.</t>
-  </si>
-  <si>
-    <t>Letkol (Inf)</t>
-  </si>
-  <si>
-    <t>Kasubbag Tata Usaha Inspektorat</t>
-  </si>
-  <si>
-    <t>196601061987031001</t>
-  </si>
-  <si>
-    <t>Ade Hermana, S.E., M.M.</t>
-  </si>
-  <si>
-    <t>Pembina Tk. I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auditor Madya</t>
-  </si>
-  <si>
-    <t>197908232014031001</t>
-  </si>
-  <si>
-    <t>Purwo Hadi Wibowo, S.E.</t>
-  </si>
-  <si>
-    <t>Auditor Ahli Pertama</t>
-  </si>
-  <si>
-    <t>198901162014031002</t>
-  </si>
-  <si>
-    <t>Anwar Suhartono, S.E.</t>
-  </si>
-  <si>
-    <t>198505302014031001</t>
-  </si>
-  <si>
-    <t>Chandra Kurniawan Nababan, S.E.</t>
-  </si>
-  <si>
-    <t>198803022015031003</t>
-  </si>
-  <si>
-    <t>Mohammad Nuhwana Saputra, S.E.</t>
-  </si>
-  <si>
-    <t>198909032015032002</t>
-  </si>
-  <si>
-    <t>Nilam Ayuningtyas, S.Psi.</t>
-  </si>
-  <si>
-    <t>Analis Hubungan Kelembagaan</t>
-  </si>
-  <si>
-    <t>199408182018012001</t>
-  </si>
-  <si>
-    <t>Safira Insani, S.Sos.</t>
-  </si>
-  <si>
-    <t>199502282019022007</t>
-  </si>
-  <si>
-    <t>Nur Aisyah</t>
-  </si>
-  <si>
-    <t>198908172019022004</t>
-  </si>
-  <si>
-    <t>Siti Huriah Azmi</t>
-  </si>
-  <si>
-    <t>199308042019022005</t>
-  </si>
-  <si>
-    <t>Fadia Naufa Nasution</t>
-  </si>
-  <si>
-    <t>199704162018122001</t>
-  </si>
-  <si>
-    <t>Siti Nur Arofah</t>
-  </si>
-  <si>
-    <t>199703142018121001</t>
-  </si>
-  <si>
-    <t>Teguh Darmawanto</t>
-  </si>
-  <si>
-    <t>199003052017010321054</t>
-  </si>
-  <si>
-    <t>Devia Elita Sari</t>
-  </si>
-  <si>
-    <t>Staf Inspektorat</t>
-  </si>
-  <si>
-    <t>Drs. Suhardi Alius, M.H.</t>
-  </si>
-  <si>
-    <t>Komjen Pol</t>
-  </si>
-  <si>
-    <t>Kepala BNPT</t>
-  </si>
-  <si>
-    <t>198509142008121001</t>
-  </si>
-  <si>
-    <t>Rikhi Benindo Maghaz, S.H.</t>
-  </si>
-  <si>
-    <t>Jaksa Pratama</t>
-  </si>
-  <si>
-    <t>Kasubbag Tata Usaha Kepala</t>
-  </si>
-  <si>
-    <t>199203032018012001</t>
-  </si>
-  <si>
-    <t>Nurul Indah Ristyani, S.Sos.</t>
-  </si>
-  <si>
-    <t>197605052017010312067</t>
-  </si>
-  <si>
-    <t>Abdul Hamid Majid, S.P</t>
-  </si>
-  <si>
-    <t>Staf Khusus Kepala BNPT</t>
-  </si>
-  <si>
-    <t>198604222017010321035</t>
-  </si>
-  <si>
-    <t>Vita Afrilia</t>
-  </si>
-  <si>
-    <t>Staf TU Kepala</t>
-  </si>
-  <si>
-    <t>199105162017010311006</t>
-  </si>
-  <si>
-    <t>Yogi Sumarna</t>
-  </si>
-  <si>
-    <t>197706012017010311024</t>
-  </si>
-  <si>
-    <t>Anugrah Wanto Wibowo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. A. Adang Supriyadi </t>
-  </si>
-  <si>
-    <t>Marsda TNI</t>
-  </si>
-  <si>
-    <t>Sekretaris Utama</t>
-  </si>
-  <si>
-    <t>Dadang Hendrayudha</t>
-  </si>
-  <si>
-    <t>Brigjen TNI</t>
-  </si>
-  <si>
     <t>Kepala Biro Umum</t>
   </si>
   <si>
@@ -1358,9 +1367,6 @@
     <t>Kasubdit Bina Dalam Lembaga Pemasyarakatan</t>
   </si>
   <si>
-    <t>Deputi Bidang Pencegahan, Perlindungan, dan Deradikalisasi</t>
-  </si>
-  <si>
     <t>198112212001121001</t>
   </si>
   <si>
@@ -2246,36 +2252,39 @@
     <t>Irjen Pol</t>
   </si>
   <si>
+    <t>Deputi Bidang Pencegahan, Perlindungan dan Deradikalisasi</t>
+  </si>
+  <si>
+    <t>Drs. Torik Triyono, M.Si.</t>
+  </si>
+  <si>
+    <t>Direktur Penindakan</t>
+  </si>
+  <si>
+    <t>Drs. Imam Margono</t>
+  </si>
+  <si>
+    <t>Direktur Pembinaan Kemampuan</t>
+  </si>
+  <si>
+    <t>Eddy Hartono, S.I.K., M.H.</t>
+  </si>
+  <si>
+    <t>Direktur Penegakan Hukum</t>
+  </si>
+  <si>
+    <t>196805171996031000</t>
+  </si>
+  <si>
+    <t>Supargiyanto, S.Sos.</t>
+  </si>
+  <si>
+    <t>Kasubbag Tata Usaha Deputi II</t>
+  </si>
+  <si>
     <t>Deputi Bidang Penindakan dan Pembinaan Kemampuan</t>
   </si>
   <si>
-    <t>Drs. Torik Triyono, M.Si.</t>
-  </si>
-  <si>
-    <t>Direktur Penindakan</t>
-  </si>
-  <si>
-    <t>Drs. Imam Margono</t>
-  </si>
-  <si>
-    <t>Direktur Pembinaan Kemampuan</t>
-  </si>
-  <si>
-    <t>Eddy Hartono, S.I.K., M.H.</t>
-  </si>
-  <si>
-    <t>Direktur Penegakan Hukum</t>
-  </si>
-  <si>
-    <t>196805171996031000</t>
-  </si>
-  <si>
-    <t>Supargiyanto, S.Sos.</t>
-  </si>
-  <si>
-    <t>Kasubbag Tata Usaha Deputi II</t>
-  </si>
-  <si>
     <t>198706072014031001</t>
   </si>
   <si>
@@ -2837,7 +2846,7 @@
     <t>197407042000031001</t>
   </si>
   <si>
-    <t>Tolhah Ubaidi, S.I.P., M.P.P.</t>
+    <t>Tolhah Ubaidi, S.IP., MPP.</t>
   </si>
   <si>
     <t>Kasubdit Amerika dan Eropa</t>
@@ -3135,6 +3144,9 @@
   </si>
   <si>
     <t>Andhika Chrisnayudhanto</t>
+  </si>
+  <si>
+    <t>Deputi Kerjasama Internasional</t>
   </si>
   <si>
     <t>8716/P</t>
@@ -7898,13 +7910,13 @@
         <v>403</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="G144" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7915,19 +7927,19 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D145" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E145" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F145" t="s">
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -7941,10 +7953,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E146" t="s">
         <v>30</v>
@@ -7967,10 +7979,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D147" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E147" t="s">
         <v>35</v>
@@ -7979,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -7993,10 +8005,10 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D148" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E148" t="s">
         <v>35</v>
@@ -8005,7 +8017,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
@@ -8019,10 +8031,10 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D149" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E149" t="s">
         <v>35</v>
@@ -8031,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -8045,10 +8057,10 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D150" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E150" t="s">
         <v>35</v>
@@ -8057,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -8074,16 +8086,16 @@
         <v>507801</v>
       </c>
       <c r="D151" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E151" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -8100,19 +8112,19 @@
         <v>32296</v>
       </c>
       <c r="D152" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G152" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8123,19 +8135,19 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D153" t="s">
+        <v>431</v>
+      </c>
+      <c r="E153" t="s">
+        <v>432</v>
+      </c>
+      <c r="F153" t="s">
         <v>428</v>
       </c>
-      <c r="E153" t="s">
-        <v>429</v>
-      </c>
-      <c r="F153" t="s">
-        <v>365</v>
-      </c>
       <c r="G153" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
@@ -8149,10 +8161,10 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -8161,7 +8173,7 @@
         <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -8175,10 +8187,10 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E155" t="s">
         <v>35</v>
@@ -8187,7 +8199,7 @@
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -8201,10 +8213,10 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D156" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E156" t="s">
         <v>35</v>
@@ -8213,7 +8225,7 @@
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -8227,10 +8239,10 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D157" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E157" t="s">
         <v>12</v>
@@ -8239,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -8253,22 +8265,22 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D158" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H158" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8279,22 +8291,22 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D159" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F159" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G159" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H159" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8305,10 +8317,10 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D160" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E160" t="s">
         <v>22</v>
@@ -8317,10 +8329,10 @@
         <v>23</v>
       </c>
       <c r="G160" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H160" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8331,10 +8343,10 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D161" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E161" t="s">
         <v>22</v>
@@ -8346,7 +8358,7 @@
         <v>113</v>
       </c>
       <c r="H161" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8357,10 +8369,10 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -8372,7 +8384,7 @@
         <v>238</v>
       </c>
       <c r="H162" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8383,10 +8395,10 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D163" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -8395,10 +8407,10 @@
         <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H163" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8409,10 +8421,10 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D164" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -8421,10 +8433,10 @@
         <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H164" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8435,10 +8447,10 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D165" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
@@ -8450,7 +8462,7 @@
         <v>198</v>
       </c>
       <c r="H165" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8461,10 +8473,10 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D166" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -8473,10 +8485,10 @@
         <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H166" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8487,10 +8499,10 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D167" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -8499,10 +8511,10 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H167" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8513,10 +8525,10 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D168" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
@@ -8525,10 +8537,10 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H168" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8539,10 +8551,10 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D169" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -8551,10 +8563,10 @@
         <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H169" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8565,10 +8577,10 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D170" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
@@ -8577,10 +8589,10 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H170" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8591,10 +8603,10 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D171" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
@@ -8603,10 +8615,10 @@
         <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H171" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8617,10 +8629,10 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -8629,10 +8641,10 @@
         <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H172" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8643,10 +8655,10 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D173" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -8655,10 +8667,10 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H173" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8669,10 +8681,10 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E174" t="s">
         <v>35</v>
@@ -8681,10 +8693,10 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H174" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8695,22 +8707,22 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D175" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E175" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H175" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8721,22 +8733,22 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E176" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F176" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G176" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H176" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8747,10 +8759,10 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D177" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
@@ -8759,10 +8771,10 @@
         <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H177" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8773,10 +8785,10 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D178" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -8785,10 +8797,10 @@
         <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H178" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8799,10 +8811,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D179" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
@@ -8811,10 +8823,10 @@
         <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H179" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8825,10 +8837,10 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D180" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E180" t="s">
         <v>30</v>
@@ -8837,10 +8849,10 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H180" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8851,10 +8863,10 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D181" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E181" t="s">
         <v>30</v>
@@ -8863,10 +8875,10 @@
         <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H181" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -8877,10 +8889,10 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D182" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E182" t="s">
         <v>30</v>
@@ -8889,10 +8901,10 @@
         <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H182" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -8903,10 +8915,10 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D183" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E183" t="s">
         <v>30</v>
@@ -8915,10 +8927,10 @@
         <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H183" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -8929,10 +8941,10 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D184" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E184" t="s">
         <v>30</v>
@@ -8941,10 +8953,10 @@
         <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H184" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8955,10 +8967,10 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D185" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E185" t="s">
         <v>30</v>
@@ -8967,10 +8979,10 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H185" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -8984,19 +8996,19 @@
         <v>519795</v>
       </c>
       <c r="D186" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E186" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H186" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9007,22 +9019,22 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D187" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E187" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F187" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G187" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H187" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9033,22 +9045,22 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D188" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E188" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H188" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9059,10 +9071,10 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D189" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E189" t="s">
         <v>22</v>
@@ -9074,7 +9086,7 @@
         <v>113</v>
       </c>
       <c r="H189" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9085,10 +9097,10 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D190" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E190" t="s">
         <v>30</v>
@@ -9097,10 +9109,10 @@
         <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H190" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9111,10 +9123,10 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D191" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E191" t="s">
         <v>30</v>
@@ -9123,10 +9135,10 @@
         <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H191" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9137,10 +9149,10 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D192" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E192" t="s">
         <v>30</v>
@@ -9152,7 +9164,7 @@
         <v>24</v>
       </c>
       <c r="H192" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9163,10 +9175,10 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D193" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E193" t="s">
         <v>30</v>
@@ -9175,10 +9187,10 @@
         <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H193" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -9189,10 +9201,10 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D194" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E194" t="s">
         <v>30</v>
@@ -9201,10 +9213,10 @@
         <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H194" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9215,10 +9227,10 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D195" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E195" t="s">
         <v>30</v>
@@ -9227,10 +9239,10 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H195" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -9241,10 +9253,10 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D196" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
@@ -9253,10 +9265,10 @@
         <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H196" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -9270,19 +9282,19 @@
         <v>519802</v>
       </c>
       <c r="D197" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E197" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H197" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -9293,22 +9305,22 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D198" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E198" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F198" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G198" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H198" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -9319,10 +9331,10 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D199" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E199" t="s">
         <v>30</v>
@@ -9334,7 +9346,7 @@
         <v>113</v>
       </c>
       <c r="H199" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -9345,10 +9357,10 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D200" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E200" t="s">
         <v>22</v>
@@ -9357,10 +9369,10 @@
         <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H200" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -9371,10 +9383,10 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D201" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
@@ -9383,10 +9395,10 @@
         <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H201" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -9397,10 +9409,10 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D202" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E202" t="s">
         <v>30</v>
@@ -9409,10 +9421,10 @@
         <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H202" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -9423,10 +9435,10 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D203" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E203" t="s">
         <v>193</v>
@@ -9438,7 +9450,7 @@
         <v>299</v>
       </c>
       <c r="H203" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -9449,10 +9461,10 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D204" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E204" t="s">
         <v>30</v>
@@ -9464,7 +9476,7 @@
         <v>32</v>
       </c>
       <c r="H204" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -9475,10 +9487,10 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D205" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -9487,10 +9499,10 @@
         <v>12</v>
       </c>
       <c r="G205" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H205" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -9501,22 +9513,22 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D206" t="s">
+        <v>576</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
         <v>574</v>
       </c>
-      <c r="E206" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>572</v>
-      </c>
       <c r="H206" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -9527,10 +9539,10 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D207" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E207" t="s">
         <v>142</v>
@@ -9539,10 +9551,10 @@
         <v>172</v>
       </c>
       <c r="G207" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H207" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9553,10 +9565,10 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D208" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E208" t="s">
         <v>17</v>
@@ -9565,10 +9577,10 @@
         <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H208" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9579,22 +9591,22 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D209" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E209" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F209" t="s">
         <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H209" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9605,10 +9617,10 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D210" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E210" t="s">
         <v>22</v>
@@ -9617,10 +9629,10 @@
         <v>23</v>
       </c>
       <c r="G210" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H210" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9631,10 +9643,10 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D211" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E211" t="s">
         <v>30</v>
@@ -9643,10 +9655,10 @@
         <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H211" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -9657,10 +9669,10 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D212" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E212" t="s">
         <v>30</v>
@@ -9669,10 +9681,10 @@
         <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H212" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9683,10 +9695,10 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D213" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E213" t="s">
         <v>30</v>
@@ -9698,7 +9710,7 @@
         <v>198</v>
       </c>
       <c r="H213" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9709,10 +9721,10 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D214" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E214" t="s">
         <v>35</v>
@@ -9721,10 +9733,10 @@
         <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H214" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9735,10 +9747,10 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D215" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E215" t="s">
         <v>35</v>
@@ -9747,10 +9759,10 @@
         <v>12</v>
       </c>
       <c r="G215" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H215" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9761,10 +9773,10 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D216" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E216" t="s">
         <v>35</v>
@@ -9773,10 +9785,10 @@
         <v>12</v>
       </c>
       <c r="G216" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H216" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9787,10 +9799,10 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D217" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E217" t="s">
         <v>35</v>
@@ -9799,10 +9811,10 @@
         <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H217" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -9813,22 +9825,22 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D218" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E218" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G218" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H218" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -9839,22 +9851,22 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D219" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E219" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F219" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G219" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H219" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -9865,10 +9877,10 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D220" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E220" t="s">
         <v>17</v>
@@ -9877,10 +9889,10 @@
         <v>18</v>
       </c>
       <c r="G220" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H220" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -9891,10 +9903,10 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D221" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E221" t="s">
         <v>30</v>
@@ -9903,10 +9915,10 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H221" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9917,10 +9929,10 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D222" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E222" t="s">
         <v>30</v>
@@ -9932,7 +9944,7 @@
         <v>32</v>
       </c>
       <c r="H222" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -9943,10 +9955,10 @@
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D223" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E223" t="s">
         <v>30</v>
@@ -9958,7 +9970,7 @@
         <v>198</v>
       </c>
       <c r="H223" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -9972,19 +9984,19 @@
         <v>32798</v>
       </c>
       <c r="D224" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E224" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F224" t="s">
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H224" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -9995,10 +10007,10 @@
         <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D225" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E225" t="s">
         <v>105</v>
@@ -10007,10 +10019,10 @@
         <v>176</v>
       </c>
       <c r="G225" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H225" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10021,22 +10033,22 @@
         <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D226" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E226" t="s">
         <v>22</v>
       </c>
       <c r="F226" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G226" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H226" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10047,10 +10059,10 @@
         <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D227" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E227" t="s">
         <v>22</v>
@@ -10062,7 +10074,7 @@
         <v>24</v>
       </c>
       <c r="H227" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10073,10 +10085,10 @@
         <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D228" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E228" t="s">
         <v>22</v>
@@ -10085,10 +10097,10 @@
         <v>23</v>
       </c>
       <c r="G228" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H228" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10099,10 +10111,10 @@
         <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D229" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E229" t="s">
         <v>30</v>
@@ -10114,7 +10126,7 @@
         <v>113</v>
       </c>
       <c r="H229" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10125,10 +10137,10 @@
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D230" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E230" t="s">
         <v>30</v>
@@ -10140,7 +10152,7 @@
         <v>32</v>
       </c>
       <c r="H230" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10151,10 +10163,10 @@
         <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D231" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E231" t="s">
         <v>30</v>
@@ -10166,7 +10178,7 @@
         <v>198</v>
       </c>
       <c r="H231" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -10177,10 +10189,10 @@
         <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D232" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E232" t="s">
         <v>30</v>
@@ -10189,10 +10201,10 @@
         <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H232" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -10203,10 +10215,10 @@
         <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D233" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E233" t="s">
         <v>11</v>
@@ -10215,10 +10227,10 @@
         <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H233" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -10229,10 +10241,10 @@
         <v>233</v>
       </c>
       <c r="C234" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D234" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E234" t="s">
         <v>17</v>
@@ -10241,10 +10253,10 @@
         <v>18</v>
       </c>
       <c r="G234" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H234" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -10258,19 +10270,19 @@
         <v>71040697</v>
       </c>
       <c r="D235" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E235" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F235" t="s">
         <v>12</v>
       </c>
       <c r="G235" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H235" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -10281,10 +10293,10 @@
         <v>235</v>
       </c>
       <c r="C236" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D236" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E236" t="s">
         <v>30</v>
@@ -10296,7 +10308,7 @@
         <v>113</v>
       </c>
       <c r="H236" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -10307,10 +10319,10 @@
         <v>236</v>
       </c>
       <c r="C237" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D237" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E237" t="s">
         <v>30</v>
@@ -10322,7 +10334,7 @@
         <v>32</v>
       </c>
       <c r="H237" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -10333,10 +10345,10 @@
         <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D238" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E238" t="s">
         <v>30</v>
@@ -10345,10 +10357,10 @@
         <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H238" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10359,10 +10371,10 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D239" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E239" t="s">
         <v>30</v>
@@ -10371,10 +10383,10 @@
         <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H239" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -10385,10 +10397,10 @@
         <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D240" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E240" t="s">
         <v>373</v>
@@ -10397,10 +10409,10 @@
         <v>172</v>
       </c>
       <c r="G240" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H240" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10411,22 +10423,22 @@
         <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D241" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E241" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G241" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H241" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -10437,10 +10449,10 @@
         <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D242" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E242" t="s">
         <v>22</v>
@@ -10449,10 +10461,10 @@
         <v>23</v>
       </c>
       <c r="G242" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H242" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -10463,10 +10475,10 @@
         <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D243" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E243" t="s">
         <v>30</v>
@@ -10475,10 +10487,10 @@
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H243" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -10489,10 +10501,10 @@
         <v>243</v>
       </c>
       <c r="C244" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D244" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E244" t="s">
         <v>30</v>
@@ -10504,7 +10516,7 @@
         <v>32</v>
       </c>
       <c r="H244" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10515,10 +10527,10 @@
         <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D245" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E245" t="s">
         <v>30</v>
@@ -10527,10 +10539,10 @@
         <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H245" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10541,10 +10553,10 @@
         <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D246" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E246" t="s">
         <v>30</v>
@@ -10553,10 +10565,10 @@
         <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H246" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -10567,10 +10579,10 @@
         <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D247" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E247" t="s">
         <v>30</v>
@@ -10579,10 +10591,10 @@
         <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H247" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -10593,10 +10605,10 @@
         <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D248" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E248" t="s">
         <v>30</v>
@@ -10605,10 +10617,10 @@
         <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H248" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -10619,10 +10631,10 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D249" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E249" t="s">
         <v>30</v>
@@ -10631,10 +10643,10 @@
         <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H249" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -10645,10 +10657,10 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D250" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E250" t="s">
         <v>30</v>
@@ -10657,10 +10669,10 @@
         <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H250" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -10671,10 +10683,10 @@
         <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D251" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E251" t="s">
         <v>30</v>
@@ -10683,10 +10695,10 @@
         <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H251" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10700,10 +10712,10 @@
         <v>30851</v>
       </c>
       <c r="D252" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E252" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F252" t="s">
         <v>12</v>
@@ -10712,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10723,22 +10735,22 @@
         <v>252</v>
       </c>
       <c r="C253" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D253" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E253" t="s">
         <v>364</v>
       </c>
       <c r="F253" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="G253" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H253" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10752,19 +10764,19 @@
         <v>620710016</v>
       </c>
       <c r="D254" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E254" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F254" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G254" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H254" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -10778,19 +10790,19 @@
         <v>63100746</v>
       </c>
       <c r="D255" t="s">
+        <v>703</v>
+      </c>
+      <c r="E255" t="s">
         <v>701</v>
       </c>
-      <c r="E255" t="s">
-        <v>699</v>
-      </c>
       <c r="F255" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G255" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H255" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -10801,10 +10813,10 @@
         <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D256" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E256" t="s">
         <v>105</v>
@@ -10813,10 +10825,10 @@
         <v>176</v>
       </c>
       <c r="G256" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H256" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -10827,10 +10839,10 @@
         <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D257" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E257" t="s">
         <v>22</v>
@@ -10842,7 +10854,7 @@
         <v>183</v>
       </c>
       <c r="H257" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -10853,10 +10865,10 @@
         <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D258" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E258" t="s">
         <v>22</v>
@@ -10868,7 +10880,7 @@
         <v>386</v>
       </c>
       <c r="H258" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -10879,10 +10891,10 @@
         <v>258</v>
       </c>
       <c r="C259" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D259" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E259" t="s">
         <v>30</v>
@@ -10894,7 +10906,7 @@
         <v>32</v>
       </c>
       <c r="H259" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10905,10 +10917,10 @@
         <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D260" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E260" t="s">
         <v>30</v>
@@ -10920,7 +10932,7 @@
         <v>32</v>
       </c>
       <c r="H260" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10931,10 +10943,10 @@
         <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D261" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E261" t="s">
         <v>30</v>
@@ -10946,7 +10958,7 @@
         <v>272</v>
       </c>
       <c r="H261" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -10957,10 +10969,10 @@
         <v>261</v>
       </c>
       <c r="C262" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D262" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E262" t="s">
         <v>158</v>
@@ -10972,7 +10984,7 @@
         <v>244</v>
       </c>
       <c r="H262" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10983,10 +10995,10 @@
         <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D263" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E263" t="s">
         <v>158</v>
@@ -10998,7 +11010,7 @@
         <v>244</v>
       </c>
       <c r="H263" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11009,10 +11021,10 @@
         <v>263</v>
       </c>
       <c r="C264" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D264" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E264" t="s">
         <v>35</v>
@@ -11021,10 +11033,10 @@
         <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H264" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11035,10 +11047,10 @@
         <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D265" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E265" t="s">
         <v>35</v>
@@ -11047,10 +11059,10 @@
         <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H265" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11061,10 +11073,10 @@
         <v>265</v>
       </c>
       <c r="C266" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D266" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E266" t="s">
         <v>35</v>
@@ -11073,10 +11085,10 @@
         <v>12</v>
       </c>
       <c r="G266" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H266" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11087,10 +11099,10 @@
         <v>266</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D267" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E267" t="s">
         <v>12</v>
@@ -11099,10 +11111,10 @@
         <v>12</v>
       </c>
       <c r="G267" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H267" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11113,22 +11125,22 @@
         <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D268" t="s">
+        <v>734</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" t="s">
         <v>732</v>
       </c>
-      <c r="E268" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" t="s">
-        <v>730</v>
-      </c>
       <c r="H268" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11139,10 +11151,10 @@
         <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D269" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -11151,10 +11163,10 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H269" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11165,22 +11177,22 @@
         <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D270" t="s">
+        <v>739</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" t="s">
         <v>737</v>
       </c>
-      <c r="E270" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" t="s">
-        <v>12</v>
-      </c>
-      <c r="G270" t="s">
-        <v>735</v>
-      </c>
       <c r="H270" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -11191,10 +11203,10 @@
         <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D271" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -11203,10 +11215,10 @@
         <v>12</v>
       </c>
       <c r="G271" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H271" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -11220,19 +11232,19 @@
         <v>63040908</v>
       </c>
       <c r="D272" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E272" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F272" t="s">
-        <v>12</v>
-      </c>
-      <c r="G272">
-        <v>2</v>
+        <v>365</v>
+      </c>
+      <c r="G272" t="s">
+        <v>745</v>
       </c>
       <c r="H272" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11246,19 +11258,19 @@
         <v>68020211</v>
       </c>
       <c r="D273" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E273" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F273" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G273" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H273" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -11272,19 +11284,19 @@
         <v>67060234</v>
       </c>
       <c r="D274" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E274" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F274" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G274" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H274" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -11298,19 +11310,19 @@
         <v>67050527</v>
       </c>
       <c r="D275" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E275" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F275" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G275" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H275" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -11321,22 +11333,22 @@
         <v>275</v>
       </c>
       <c r="C276" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D276" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E276" t="s">
         <v>228</v>
       </c>
       <c r="F276" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G276" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H276" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -11347,10 +11359,10 @@
         <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D277" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E277" t="s">
         <v>22</v>
@@ -11359,10 +11371,10 @@
         <v>23</v>
       </c>
       <c r="G277" t="s">
+        <v>758</v>
+      </c>
+      <c r="H277" t="s">
         <v>755</v>
-      </c>
-      <c r="H277" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -11373,10 +11385,10 @@
         <v>277</v>
       </c>
       <c r="C278" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D278" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E278" t="s">
         <v>30</v>
@@ -11385,10 +11397,10 @@
         <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H278" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11399,10 +11411,10 @@
         <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D279" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E279" t="s">
         <v>35</v>
@@ -11411,10 +11423,10 @@
         <v>12</v>
       </c>
       <c r="G279" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H279" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -11425,10 +11437,10 @@
         <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D280" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E280" t="s">
         <v>35</v>
@@ -11437,10 +11449,10 @@
         <v>12</v>
       </c>
       <c r="G280" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H280" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -11454,19 +11466,19 @@
         <v>31172</v>
       </c>
       <c r="D281" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E281" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F281" t="s">
         <v>12</v>
       </c>
       <c r="G281" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="H281" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -11477,10 +11489,10 @@
         <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D282" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E282" t="s">
         <v>369</v>
@@ -11489,10 +11501,10 @@
         <v>12</v>
       </c>
       <c r="G282" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="H282" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -11506,19 +11518,19 @@
         <v>521858</v>
       </c>
       <c r="D283" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E283" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F283" t="s">
         <v>12</v>
       </c>
       <c r="G283" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="H283" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -11529,10 +11541,10 @@
         <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D284" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E284" t="s">
         <v>30</v>
@@ -11544,7 +11556,7 @@
         <v>113</v>
       </c>
       <c r="H284" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -11555,10 +11567,10 @@
         <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D285" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E285" t="s">
         <v>30</v>
@@ -11570,7 +11582,7 @@
         <v>238</v>
       </c>
       <c r="H285" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -11581,10 +11593,10 @@
         <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D286" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E286" t="s">
         <v>30</v>
@@ -11593,10 +11605,10 @@
         <v>31</v>
       </c>
       <c r="G286" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H286" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -11607,10 +11619,10 @@
         <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D287" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E287" t="s">
         <v>30</v>
@@ -11619,10 +11631,10 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H287" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -11636,19 +11648,19 @@
         <v>74090558</v>
       </c>
       <c r="D288" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E288" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F288" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G288" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H288" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -11662,19 +11674,19 @@
         <v>84051746</v>
       </c>
       <c r="D289" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="E289" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F289" t="s">
         <v>12</v>
       </c>
       <c r="G289" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H289" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -11685,22 +11697,22 @@
         <v>289</v>
       </c>
       <c r="C290" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D290" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E290" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F290" t="s">
         <v>23</v>
       </c>
       <c r="G290" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="H290" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -11714,19 +11726,19 @@
         <v>65120037</v>
       </c>
       <c r="D291" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="E291" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F291" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G291" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H291" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -11737,10 +11749,10 @@
         <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D292" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E292" t="s">
         <v>22</v>
@@ -11749,10 +11761,10 @@
         <v>23</v>
       </c>
       <c r="G292" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H292" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -11763,10 +11775,10 @@
         <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D293" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E293" t="s">
         <v>30</v>
@@ -11778,7 +11790,7 @@
         <v>190</v>
       </c>
       <c r="H293" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -11789,10 +11801,10 @@
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D294" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E294" t="s">
         <v>30</v>
@@ -11804,7 +11816,7 @@
         <v>24</v>
       </c>
       <c r="H294" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -11815,10 +11827,10 @@
         <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D295" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E295" t="s">
         <v>30</v>
@@ -11827,10 +11839,10 @@
         <v>31</v>
       </c>
       <c r="G295" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="H295" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -11841,10 +11853,10 @@
         <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D296" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E296" t="s">
         <v>35</v>
@@ -11853,10 +11865,10 @@
         <v>12</v>
       </c>
       <c r="G296" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="H296" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -11870,19 +11882,19 @@
         <v>70050365</v>
       </c>
       <c r="D297" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E297" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F297" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G297" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="H297" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -11893,10 +11905,10 @@
         <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D298" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E298" t="s">
         <v>30</v>
@@ -11908,7 +11920,7 @@
         <v>32</v>
       </c>
       <c r="H298" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11919,10 +11931,10 @@
         <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D299" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E299" t="s">
         <v>30</v>
@@ -11934,7 +11946,7 @@
         <v>32</v>
       </c>
       <c r="H299" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -11945,10 +11957,10 @@
         <v>299</v>
       </c>
       <c r="C300" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D300" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E300" t="s">
         <v>30</v>
@@ -11957,10 +11969,10 @@
         <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H300" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -11971,10 +11983,10 @@
         <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D301" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E301" t="s">
         <v>30</v>
@@ -11983,10 +11995,10 @@
         <v>31</v>
       </c>
       <c r="G301" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H301" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -11997,10 +12009,10 @@
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D302" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="E302" t="s">
         <v>30</v>
@@ -12009,10 +12021,10 @@
         <v>31</v>
       </c>
       <c r="G302" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="H302" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12023,10 +12035,10 @@
         <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D303" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="E303" t="s">
         <v>193</v>
@@ -12035,10 +12047,10 @@
         <v>194</v>
       </c>
       <c r="G303" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="H303" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12049,10 +12061,10 @@
         <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D304" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E304" t="s">
         <v>193</v>
@@ -12064,7 +12076,7 @@
         <v>299</v>
       </c>
       <c r="H304" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12075,10 +12087,10 @@
         <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D305" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E305" t="s">
         <v>193</v>
@@ -12090,7 +12102,7 @@
         <v>299</v>
       </c>
       <c r="H305" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12101,10 +12113,10 @@
         <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D306" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E306" t="s">
         <v>30</v>
@@ -12113,10 +12125,10 @@
         <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H306" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12130,19 +12142,19 @@
         <v>65010649</v>
       </c>
       <c r="D307" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E307" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F307" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G307" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="H307" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12156,19 +12168,19 @@
         <v>520262</v>
       </c>
       <c r="D308" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E308" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F308" t="s">
         <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="H308" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -12179,10 +12191,10 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D309" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E309" t="s">
         <v>369</v>
@@ -12191,10 +12203,10 @@
         <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="H309" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -12205,10 +12217,10 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D310" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E310" t="s">
         <v>30</v>
@@ -12217,10 +12229,10 @@
         <v>23</v>
       </c>
       <c r="G310" t="s">
+        <v>758</v>
+      </c>
+      <c r="H310" t="s">
         <v>755</v>
-      </c>
-      <c r="H310" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -12231,10 +12243,10 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D311" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E311" t="s">
         <v>30</v>
@@ -12243,10 +12255,10 @@
         <v>31</v>
       </c>
       <c r="G311" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="H311" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -12257,10 +12269,10 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D312" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E312" t="s">
         <v>22</v>
@@ -12272,7 +12284,7 @@
         <v>386</v>
       </c>
       <c r="H312" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -12283,10 +12295,10 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D313" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E313" t="s">
         <v>30</v>
@@ -12295,10 +12307,10 @@
         <v>31</v>
       </c>
       <c r="G313" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="H313" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -12309,10 +12321,10 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D314" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E314" t="s">
         <v>30</v>
@@ -12321,10 +12333,10 @@
         <v>31</v>
       </c>
       <c r="G314" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="H314" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12335,10 +12347,10 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D315" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E315" t="s">
         <v>30</v>
@@ -12347,10 +12359,10 @@
         <v>31</v>
       </c>
       <c r="G315" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="H315" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -12361,10 +12373,10 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D316" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -12373,10 +12385,10 @@
         <v>18</v>
       </c>
       <c r="G316" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="H316" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -12387,22 +12399,22 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D317" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E317" t="s">
         <v>228</v>
       </c>
       <c r="F317" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G317" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="H317" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -12413,10 +12425,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D318" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E318" t="s">
         <v>30</v>
@@ -12428,7 +12440,7 @@
         <v>113</v>
       </c>
       <c r="H318" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -12439,10 +12451,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D319" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E319" t="s">
         <v>30</v>
@@ -12454,7 +12466,7 @@
         <v>32</v>
       </c>
       <c r="H319" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -12465,10 +12477,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D320" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E320" t="s">
         <v>30</v>
@@ -12480,7 +12492,7 @@
         <v>238</v>
       </c>
       <c r="H320" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -12491,10 +12503,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D321" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E321" t="s">
         <v>30</v>
@@ -12506,7 +12518,7 @@
         <v>113</v>
       </c>
       <c r="H321" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -12517,10 +12529,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D322" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E322" t="s">
         <v>30</v>
@@ -12529,10 +12541,10 @@
         <v>31</v>
       </c>
       <c r="G322" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H322" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -12543,22 +12555,22 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D323" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E323" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F323" t="s">
         <v>12</v>
       </c>
       <c r="G323" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H323" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -12572,19 +12584,19 @@
         <v>532423</v>
       </c>
       <c r="D324" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E324" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F324" t="s">
         <v>12</v>
       </c>
       <c r="G324" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="H324" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -12595,10 +12607,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D325" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="E325" t="s">
         <v>30</v>
@@ -12607,10 +12619,10 @@
         <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H325" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -12621,10 +12633,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D326" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="E326" t="s">
         <v>30</v>
@@ -12633,10 +12645,10 @@
         <v>31</v>
       </c>
       <c r="G326" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H326" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -12647,10 +12659,10 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D327" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E327" t="s">
         <v>35</v>
@@ -12659,10 +12671,10 @@
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H327" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -12673,10 +12685,10 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D328" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E328" t="s">
         <v>35</v>
@@ -12685,10 +12697,10 @@
         <v>12</v>
       </c>
       <c r="G328" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H328" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -12699,10 +12711,10 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D329" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E329" t="s">
         <v>35</v>
@@ -12711,10 +12723,10 @@
         <v>12</v>
       </c>
       <c r="G329" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H329" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -12728,19 +12740,19 @@
         <v>72110541</v>
       </c>
       <c r="D330" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E330" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F330" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G330" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="H330" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -12751,10 +12763,10 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D331" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -12763,10 +12775,10 @@
         <v>23</v>
       </c>
       <c r="G331" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="H331" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -12777,10 +12789,10 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D332" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E332" t="s">
         <v>30</v>
@@ -12789,10 +12801,10 @@
         <v>31</v>
       </c>
       <c r="G332" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H332" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -12803,10 +12815,10 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D333" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E333" t="s">
         <v>30</v>
@@ -12818,7 +12830,7 @@
         <v>124</v>
       </c>
       <c r="H333" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -12829,10 +12841,10 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D334" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E334" t="s">
         <v>30</v>
@@ -12844,7 +12856,7 @@
         <v>113</v>
       </c>
       <c r="H334" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -12855,10 +12867,10 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D335" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E335" t="s">
         <v>30</v>
@@ -12867,10 +12879,10 @@
         <v>31</v>
       </c>
       <c r="G335" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H335" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -12881,10 +12893,10 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D336" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E336" t="s">
         <v>30</v>
@@ -12893,10 +12905,10 @@
         <v>31</v>
       </c>
       <c r="G336" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H336" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12907,10 +12919,10 @@
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D337" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E337" t="s">
         <v>30</v>
@@ -12919,10 +12931,10 @@
         <v>31</v>
       </c>
       <c r="G337" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H337" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12933,10 +12945,10 @@
         <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D338" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E338" t="s">
         <v>158</v>
@@ -12948,7 +12960,7 @@
         <v>159</v>
       </c>
       <c r="H338" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -12959,10 +12971,10 @@
         <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D339" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E339" t="s">
         <v>158</v>
@@ -12974,7 +12986,7 @@
         <v>244</v>
       </c>
       <c r="H339" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12988,19 +13000,19 @@
         <v>74090552</v>
       </c>
       <c r="D340" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E340" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F340" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G340" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="H340" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13014,19 +13026,19 @@
         <v>80031111</v>
       </c>
       <c r="D341" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E341" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
         <v>12</v>
       </c>
       <c r="G341" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H341" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13037,10 +13049,10 @@
         <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D342" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E342" t="s">
         <v>22</v>
@@ -13049,10 +13061,10 @@
         <v>23</v>
       </c>
       <c r="G342" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H342" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13063,10 +13075,10 @@
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D343" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E343" t="s">
         <v>22</v>
@@ -13078,7 +13090,7 @@
         <v>186</v>
       </c>
       <c r="H343" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13089,10 +13101,10 @@
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D344" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E344" t="s">
         <v>30</v>
@@ -13104,7 +13116,7 @@
         <v>238</v>
       </c>
       <c r="H344" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13115,10 +13127,10 @@
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D345" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E345" t="s">
         <v>30</v>
@@ -13130,7 +13142,7 @@
         <v>113</v>
       </c>
       <c r="H345" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -13141,10 +13153,10 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D346" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E346" t="s">
         <v>12</v>
@@ -13156,7 +13168,7 @@
         <v>35</v>
       </c>
       <c r="H346" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -13167,10 +13179,10 @@
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D347" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E347" t="s">
         <v>105</v>
@@ -13179,10 +13191,10 @@
         <v>176</v>
       </c>
       <c r="G347" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H347" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -13193,10 +13205,10 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D348" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E348" t="s">
         <v>109</v>
@@ -13205,10 +13217,10 @@
         <v>18</v>
       </c>
       <c r="G348" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H348" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -13219,22 +13231,22 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D349" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E349" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
       </c>
       <c r="G349" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="H349" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -13248,19 +13260,19 @@
         <v>63100119</v>
       </c>
       <c r="D350" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E350" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F350" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G350" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H350" t="s">
-        <v>743</v>
+        <v>406</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -13271,10 +13283,10 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D351" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E351" t="s">
         <v>30</v>
@@ -13283,10 +13295,10 @@
         <v>23</v>
       </c>
       <c r="G351" t="s">
+        <v>758</v>
+      </c>
+      <c r="H351" t="s">
         <v>755</v>
-      </c>
-      <c r="H351" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -13297,10 +13309,10 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D352" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E352" t="s">
         <v>30</v>
@@ -13312,7 +13324,7 @@
         <v>32</v>
       </c>
       <c r="H352" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -13323,10 +13335,10 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D353" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E353" t="s">
         <v>30</v>
@@ -13338,7 +13350,7 @@
         <v>32</v>
       </c>
       <c r="H353" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -13349,10 +13361,10 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D354" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E354" t="s">
         <v>35</v>
@@ -13361,10 +13373,10 @@
         <v>12</v>
       </c>
       <c r="G354" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="H354" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -13375,10 +13387,10 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D355" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E355" t="s">
         <v>105</v>
@@ -13387,10 +13399,10 @@
         <v>176</v>
       </c>
       <c r="G355" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H355" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -13401,22 +13413,22 @@
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D356" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E356" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F356" t="s">
         <v>12</v>
       </c>
       <c r="G356" t="s">
+        <v>948</v>
+      </c>
+      <c r="H356" t="s">
         <v>945</v>
-      </c>
-      <c r="H356" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -13430,19 +13442,19 @@
         <v>69050155</v>
       </c>
       <c r="D357" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E357" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F357" t="s">
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H357" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -13453,10 +13465,10 @@
         <v>357</v>
       </c>
       <c r="C358" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D358" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E358" t="s">
         <v>22</v>
@@ -13465,10 +13477,10 @@
         <v>23</v>
       </c>
       <c r="G358" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H358" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -13479,10 +13491,10 @@
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D359" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -13494,7 +13506,7 @@
         <v>238</v>
       </c>
       <c r="H359" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -13505,10 +13517,10 @@
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D360" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E360" t="s">
         <v>30</v>
@@ -13517,10 +13529,10 @@
         <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H360" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -13531,10 +13543,10 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D361" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E361" t="s">
         <v>30</v>
@@ -13543,10 +13555,10 @@
         <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="H361" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -13557,10 +13569,10 @@
         <v>361</v>
       </c>
       <c r="C362" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D362" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E362" t="s">
         <v>30</v>
@@ -13569,10 +13581,10 @@
         <v>31</v>
       </c>
       <c r="G362" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="H362" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -13583,10 +13595,10 @@
         <v>362</v>
       </c>
       <c r="C363" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D363" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E363" t="s">
         <v>35</v>
@@ -13595,10 +13607,10 @@
         <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H363" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -13612,19 +13624,19 @@
         <v>516352</v>
       </c>
       <c r="D364" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E364" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F364" t="s">
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="H364" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -13635,10 +13647,10 @@
         <v>364</v>
       </c>
       <c r="C365" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D365" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E365" t="s">
         <v>22</v>
@@ -13647,10 +13659,10 @@
         <v>23</v>
       </c>
       <c r="G365" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="H365" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -13664,19 +13676,19 @@
         <v>524462</v>
       </c>
       <c r="D366" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E366" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F366" t="s">
         <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H366" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -13687,10 +13699,10 @@
         <v>366</v>
       </c>
       <c r="C367" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D367" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E367" t="s">
         <v>30</v>
@@ -13702,7 +13714,7 @@
         <v>113</v>
       </c>
       <c r="H367" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -13713,10 +13725,10 @@
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D368" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E368" t="s">
         <v>30</v>
@@ -13725,10 +13737,10 @@
         <v>31</v>
       </c>
       <c r="G368" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H368" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -13739,10 +13751,10 @@
         <v>368</v>
       </c>
       <c r="C369" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D369" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E369" t="s">
         <v>369</v>
@@ -13751,10 +13763,10 @@
         <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="H369" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -13765,10 +13777,10 @@
         <v>369</v>
       </c>
       <c r="C370" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D370" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E370" t="s">
         <v>22</v>
@@ -13777,10 +13789,10 @@
         <v>23</v>
       </c>
       <c r="G370" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H370" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -13791,10 +13803,10 @@
         <v>370</v>
       </c>
       <c r="C371" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D371" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E371" t="s">
         <v>22</v>
@@ -13806,7 +13818,7 @@
         <v>27</v>
       </c>
       <c r="H371" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -13817,10 +13829,10 @@
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D372" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E372" t="s">
         <v>30</v>
@@ -13832,7 +13844,7 @@
         <v>116</v>
       </c>
       <c r="H372" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -13843,10 +13855,10 @@
         <v>372</v>
       </c>
       <c r="C373" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D373" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E373" t="s">
         <v>30</v>
@@ -13858,7 +13870,7 @@
         <v>32</v>
       </c>
       <c r="H373" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13869,10 +13881,10 @@
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="D374" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E374" t="s">
         <v>30</v>
@@ -13881,10 +13893,10 @@
         <v>31</v>
       </c>
       <c r="G374" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H374" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -13895,10 +13907,10 @@
         <v>374</v>
       </c>
       <c r="C375" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="D375" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E375" t="s">
         <v>35</v>
@@ -13907,10 +13919,10 @@
         <v>12</v>
       </c>
       <c r="G375" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H375" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -13921,10 +13933,10 @@
         <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D376" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E376" t="s">
         <v>105</v>
@@ -13933,10 +13945,10 @@
         <v>176</v>
       </c>
       <c r="G376" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="H376" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -13950,19 +13962,19 @@
         <v>528673</v>
       </c>
       <c r="D377" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E377" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F377" t="s">
         <v>12</v>
       </c>
       <c r="G377" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="H377" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -13973,10 +13985,10 @@
         <v>377</v>
       </c>
       <c r="C378" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D378" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E378" t="s">
         <v>22</v>
@@ -13985,10 +13997,10 @@
         <v>23</v>
       </c>
       <c r="G378" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="H378" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -13999,10 +14011,10 @@
         <v>378</v>
       </c>
       <c r="C379" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D379" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E379" t="s">
         <v>22</v>
@@ -14014,7 +14026,7 @@
         <v>113</v>
       </c>
       <c r="H379" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -14025,10 +14037,10 @@
         <v>379</v>
       </c>
       <c r="C380" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D380" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E380" t="s">
         <v>30</v>
@@ -14040,7 +14052,7 @@
         <v>113</v>
       </c>
       <c r="H380" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -14051,10 +14063,10 @@
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D381" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E381" t="s">
         <v>30</v>
@@ -14066,7 +14078,7 @@
         <v>238</v>
       </c>
       <c r="H381" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -14077,10 +14089,10 @@
         <v>381</v>
       </c>
       <c r="C382" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D382" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E382" t="s">
         <v>105</v>
@@ -14089,10 +14101,10 @@
         <v>176</v>
       </c>
       <c r="G382" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H382" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -14103,10 +14115,10 @@
         <v>382</v>
       </c>
       <c r="C383" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D383" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E383" t="s">
         <v>22</v>
@@ -14115,10 +14127,10 @@
         <v>23</v>
       </c>
       <c r="G383" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H383" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -14129,10 +14141,10 @@
         <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D384" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E384" t="s">
         <v>22</v>
@@ -14141,10 +14153,10 @@
         <v>23</v>
       </c>
       <c r="G384" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H384" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -14155,10 +14167,10 @@
         <v>384</v>
       </c>
       <c r="C385" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D385" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E385" t="s">
         <v>30</v>
@@ -14170,7 +14182,7 @@
         <v>32</v>
       </c>
       <c r="H385" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -14181,10 +14193,10 @@
         <v>385</v>
       </c>
       <c r="C386" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D386" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="E386" t="s">
         <v>30</v>
@@ -14196,7 +14208,7 @@
         <v>238</v>
       </c>
       <c r="H386" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -14210,19 +14222,19 @@
         <v>72080765</v>
       </c>
       <c r="D387" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E387" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F387" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G387" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="H387" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -14236,19 +14248,19 @@
         <v>63121110</v>
       </c>
       <c r="D388" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E388" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F388" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G388" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="H388" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -14259,10 +14271,10 @@
         <v>388</v>
       </c>
       <c r="C389" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D389" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E389" t="s">
         <v>22</v>
@@ -14271,10 +14283,10 @@
         <v>23</v>
       </c>
       <c r="G389" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H389" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -14285,10 +14297,10 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D390" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E390" t="s">
         <v>22</v>
@@ -14297,10 +14309,10 @@
         <v>23</v>
       </c>
       <c r="G390" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="H390" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -14311,10 +14323,10 @@
         <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D391" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E391" t="s">
         <v>30</v>
@@ -14326,7 +14338,7 @@
         <v>113</v>
       </c>
       <c r="H391" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -14337,10 +14349,10 @@
         <v>391</v>
       </c>
       <c r="C392" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D392" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E392" t="s">
         <v>30</v>
@@ -14352,7 +14364,7 @@
         <v>24</v>
       </c>
       <c r="H392" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -14363,10 +14375,10 @@
         <v>392</v>
       </c>
       <c r="C393" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D393" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E393" t="s">
         <v>30</v>
@@ -14375,10 +14387,10 @@
         <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H393" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -14389,10 +14401,10 @@
         <v>393</v>
       </c>
       <c r="C394" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D394" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E394" t="s">
         <v>35</v>
@@ -14401,10 +14413,10 @@
         <v>12</v>
       </c>
       <c r="G394" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H394" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -14415,22 +14427,22 @@
         <v>394</v>
       </c>
       <c r="C395" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D395" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E395" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F395" t="s">
-        <v>365</v>
-      </c>
-      <c r="G395">
-        <v>3</v>
+        <v>428</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1043</v>
       </c>
       <c r="H395" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -14441,22 +14453,22 @@
         <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D396" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E396" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="F396" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G396" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="H396" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -14470,19 +14482,19 @@
         <v>67060540</v>
       </c>
       <c r="D397" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E397" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F397" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G397" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="H397" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -14493,10 +14505,10 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="D398" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="E398" t="s">
         <v>17</v>
@@ -14505,10 +14517,10 @@
         <v>18</v>
       </c>
       <c r="G398" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="H398" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -14519,10 +14531,10 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D399" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="E399" t="s">
         <v>30</v>
@@ -14534,7 +14546,7 @@
         <v>272</v>
       </c>
       <c r="H399" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -14545,10 +14557,10 @@
         <v>399</v>
       </c>
       <c r="C400" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="D400" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="E400" t="s">
         <v>158</v>
@@ -14557,10 +14569,10 @@
         <v>194</v>
       </c>
       <c r="G400" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="H400" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -14571,10 +14583,10 @@
         <v>400</v>
       </c>
       <c r="C401" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D401" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="E401" t="s">
         <v>158</v>
@@ -14583,10 +14595,10 @@
         <v>194</v>
       </c>
       <c r="G401" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="H401" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -14597,10 +14609,10 @@
         <v>401</v>
       </c>
       <c r="C402" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D402" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="E402" t="s">
         <v>35</v>
@@ -14609,10 +14621,10 @@
         <v>12</v>
       </c>
       <c r="G402" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="H402" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -14623,10 +14635,10 @@
         <v>402</v>
       </c>
       <c r="C403" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="D403" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="E403" t="s">
         <v>35</v>
@@ -14635,10 +14647,10 @@
         <v>12</v>
       </c>
       <c r="G403" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="H403" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -14649,10 +14661,10 @@
         <v>403</v>
       </c>
       <c r="C404" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="D404" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="E404" t="s">
         <v>35</v>
@@ -14661,10 +14673,10 @@
         <v>12</v>
       </c>
       <c r="G404" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="H404" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -14675,10 +14687,10 @@
         <v>404</v>
       </c>
       <c r="C405" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="D405" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E405" t="s">
         <v>12</v>
@@ -14687,10 +14699,10 @@
         <v>12</v>
       </c>
       <c r="G405" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="H405" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -14701,10 +14713,10 @@
         <v>405</v>
       </c>
       <c r="C406" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D406" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E406" t="s">
         <v>12</v>
@@ -14713,10 +14725,10 @@
         <v>12</v>
       </c>
       <c r="G406" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="H406" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -14727,10 +14739,10 @@
         <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="D407" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E407" t="s">
         <v>12</v>
@@ -14739,10 +14751,10 @@
         <v>12</v>
       </c>
       <c r="G407" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="H407" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -14753,10 +14765,10 @@
         <v>407</v>
       </c>
       <c r="C408" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="D408" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="E408" t="s">
         <v>12</v>
@@ -14765,10 +14777,10 @@
         <v>12</v>
       </c>
       <c r="G408" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="H408" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -14779,10 +14791,10 @@
         <v>408</v>
       </c>
       <c r="C409" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="D409" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="E409" t="s">
         <v>12</v>
@@ -14791,10 +14803,10 @@
         <v>12</v>
       </c>
       <c r="G409" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="H409" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -14805,10 +14817,10 @@
         <v>409</v>
       </c>
       <c r="C410" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="D410" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="E410" t="s">
         <v>12</v>
@@ -14817,10 +14829,10 @@
         <v>12</v>
       </c>
       <c r="G410" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="H410" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -14831,10 +14843,10 @@
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="D411" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="E411" t="s">
         <v>12</v>
@@ -14843,10 +14855,10 @@
         <v>12</v>
       </c>
       <c r="G411" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="H411" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -14857,10 +14869,10 @@
         <v>411</v>
       </c>
       <c r="C412" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="D412" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="E412" t="s">
         <v>12</v>
@@ -14869,10 +14881,10 @@
         <v>12</v>
       </c>
       <c r="G412" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H412" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -14883,10 +14895,10 @@
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D413" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E413" t="s">
         <v>12</v>
@@ -14895,10 +14907,10 @@
         <v>12</v>
       </c>
       <c r="G413" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H413" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -14909,22 +14921,22 @@
         <v>413</v>
       </c>
       <c r="C414" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="D414" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E414" t="s">
+        <v>12</v>
+      </c>
+      <c r="F414" t="s">
+        <v>12</v>
+      </c>
+      <c r="G414" t="s">
         <v>1091</v>
       </c>
-      <c r="E414" t="s">
-        <v>12</v>
-      </c>
-      <c r="F414" t="s">
-        <v>12</v>
-      </c>
-      <c r="G414" t="s">
-        <v>1087</v>
-      </c>
       <c r="H414" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14935,10 +14947,10 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="D415" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="E415" t="s">
         <v>12</v>
@@ -14947,10 +14959,10 @@
         <v>12</v>
       </c>
       <c r="G415" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H415" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -14961,10 +14973,10 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="D416" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="E416" t="s">
         <v>12</v>
@@ -14973,10 +14985,10 @@
         <v>12</v>
       </c>
       <c r="G416" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H416" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14987,10 +14999,10 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="D417" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="E417" t="s">
         <v>12</v>
@@ -14999,10 +15011,10 @@
         <v>12</v>
       </c>
       <c r="G417" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H417" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -15013,10 +15025,10 @@
         <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="D418" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="E418" t="s">
         <v>12</v>
@@ -15025,10 +15037,10 @@
         <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="H418" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -15039,10 +15051,10 @@
         <v>418</v>
       </c>
       <c r="C419" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="D419" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="E419" t="s">
         <v>12</v>
@@ -15051,10 +15063,10 @@
         <v>12</v>
       </c>
       <c r="G419" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="H419" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -15065,10 +15077,10 @@
         <v>419</v>
       </c>
       <c r="C420" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="D420" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="E420" t="s">
         <v>12</v>
@@ -15077,10 +15089,10 @@
         <v>12</v>
       </c>
       <c r="G420" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="H420" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -15091,22 +15103,22 @@
         <v>420</v>
       </c>
       <c r="C421" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="D421" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E421" t="s">
+        <v>12</v>
+      </c>
+      <c r="F421" t="s">
+        <v>12</v>
+      </c>
+      <c r="G421" t="s">
         <v>1107</v>
       </c>
-      <c r="E421" t="s">
-        <v>12</v>
-      </c>
-      <c r="F421" t="s">
-        <v>12</v>
-      </c>
-      <c r="G421" t="s">
-        <v>1103</v>
-      </c>
       <c r="H421" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -15117,10 +15129,10 @@
         <v>421</v>
       </c>
       <c r="C422" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="D422" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="E422" t="s">
         <v>12</v>
@@ -15129,10 +15141,10 @@
         <v>12</v>
       </c>
       <c r="G422" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="H422" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -15143,10 +15155,10 @@
         <v>422</v>
       </c>
       <c r="C423" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="D423" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="E423" t="s">
         <v>12</v>
@@ -15155,10 +15167,10 @@
         <v>12</v>
       </c>
       <c r="G423" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="H423" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -15169,10 +15181,10 @@
         <v>423</v>
       </c>
       <c r="C424" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="D424" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="E424" t="s">
         <v>12</v>
@@ -15181,10 +15193,10 @@
         <v>12</v>
       </c>
       <c r="G424" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="H424" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -15195,10 +15207,10 @@
         <v>424</v>
       </c>
       <c r="C425" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D425" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="E425" t="s">
         <v>12</v>
@@ -15207,10 +15219,10 @@
         <v>12</v>
       </c>
       <c r="G425" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="H425" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -15221,10 +15233,10 @@
         <v>425</v>
       </c>
       <c r="C426" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="D426" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="E426" t="s">
         <v>12</v>
@@ -15233,10 +15245,10 @@
         <v>12</v>
       </c>
       <c r="G426" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H426" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -15247,10 +15259,10 @@
         <v>426</v>
       </c>
       <c r="C427" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D427" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E427" t="s">
         <v>12</v>
@@ -15259,10 +15271,10 @@
         <v>12</v>
       </c>
       <c r="G427" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H427" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -15273,10 +15285,10 @@
         <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="D428" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="E428" t="s">
         <v>12</v>
@@ -15285,10 +15297,10 @@
         <v>12</v>
       </c>
       <c r="G428" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="H428" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -15299,10 +15311,10 @@
         <v>428</v>
       </c>
       <c r="C429" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D429" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="E429" t="s">
         <v>12</v>
@@ -15311,10 +15323,10 @@
         <v>12</v>
       </c>
       <c r="G429" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="H429" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -15325,22 +15337,22 @@
         <v>429</v>
       </c>
       <c r="C430" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D430" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E430" t="s">
+        <v>12</v>
+      </c>
+      <c r="F430" t="s">
+        <v>12</v>
+      </c>
+      <c r="G430" t="s">
         <v>1127</v>
       </c>
-      <c r="E430" t="s">
-        <v>12</v>
-      </c>
-      <c r="F430" t="s">
-        <v>12</v>
-      </c>
-      <c r="G430" t="s">
-        <v>1123</v>
-      </c>
       <c r="H430" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -15351,10 +15363,10 @@
         <v>430</v>
       </c>
       <c r="C431" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="D431" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="E431" t="s">
         <v>12</v>
@@ -15363,10 +15375,10 @@
         <v>12</v>
       </c>
       <c r="G431" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="H431" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -15377,10 +15389,10 @@
         <v>431</v>
       </c>
       <c r="C432" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D432" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="E432" t="s">
         <v>12</v>
@@ -15389,10 +15401,10 @@
         <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="H432" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -15403,10 +15415,10 @@
         <v>432</v>
       </c>
       <c r="C433" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D433" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E433" t="s">
         <v>12</v>
@@ -15415,10 +15427,10 @@
         <v>12</v>
       </c>
       <c r="G433" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="H433" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -15429,10 +15441,10 @@
         <v>433</v>
       </c>
       <c r="C434" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D434" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="E434" t="s">
         <v>12</v>
@@ -15441,10 +15453,10 @@
         <v>12</v>
       </c>
       <c r="G434" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="H434" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -15455,10 +15467,10 @@
         <v>434</v>
       </c>
       <c r="C435" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="D435" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="E435" t="s">
         <v>12</v>
@@ -15467,10 +15479,10 @@
         <v>12</v>
       </c>
       <c r="G435" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="H435" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -15481,10 +15493,10 @@
         <v>435</v>
       </c>
       <c r="C436" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D436" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="E436" t="s">
         <v>12</v>
@@ -15493,10 +15505,10 @@
         <v>12</v>
       </c>
       <c r="G436" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="H436" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -15507,10 +15519,10 @@
         <v>436</v>
       </c>
       <c r="C437" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="D437" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="E437" t="s">
         <v>12</v>
@@ -15519,10 +15531,10 @@
         <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="H437" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -15533,10 +15545,10 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="D438" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="E438" t="s">
         <v>12</v>
@@ -15545,10 +15557,10 @@
         <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="H438" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -15559,10 +15571,10 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="D439" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="E439" t="s">
         <v>12</v>
@@ -15571,10 +15583,10 @@
         <v>12</v>
       </c>
       <c r="G439" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="H439" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -15585,10 +15597,10 @@
         <v>439</v>
       </c>
       <c r="C440" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="D440" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="E440" t="s">
         <v>12</v>
@@ -15597,10 +15609,10 @@
         <v>12</v>
       </c>
       <c r="G440" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="H440" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -15611,10 +15623,10 @@
         <v>440</v>
       </c>
       <c r="C441" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="D441" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="E441" t="s">
         <v>12</v>
@@ -15623,10 +15635,10 @@
         <v>12</v>
       </c>
       <c r="G441" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="H441" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -15637,10 +15649,10 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D442" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="E442" t="s">
         <v>12</v>
@@ -15649,10 +15661,10 @@
         <v>12</v>
       </c>
       <c r="G442" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="H442" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -15663,10 +15675,10 @@
         <v>442</v>
       </c>
       <c r="C443" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="D443" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="E443" t="s">
         <v>12</v>
@@ -15675,10 +15687,10 @@
         <v>12</v>
       </c>
       <c r="G443" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="H443" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -15689,10 +15701,10 @@
         <v>443</v>
       </c>
       <c r="C444" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="D444" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="E444" t="s">
         <v>12</v>
@@ -15701,10 +15713,10 @@
         <v>12</v>
       </c>
       <c r="G444" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="H444" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15715,10 +15727,10 @@
         <v>444</v>
       </c>
       <c r="C445" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="D445" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="E445" t="s">
         <v>12</v>
@@ -15727,10 +15739,10 @@
         <v>12</v>
       </c>
       <c r="G445" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="H445" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -15741,10 +15753,10 @@
         <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="D446" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="E446" t="s">
         <v>12</v>
@@ -15753,10 +15765,10 @@
         <v>12</v>
       </c>
       <c r="G446" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="H446" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -15767,10 +15779,10 @@
         <v>446</v>
       </c>
       <c r="C447" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="D447" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="E447" t="s">
         <v>12</v>
@@ -15779,10 +15791,10 @@
         <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="H447" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -15793,10 +15805,10 @@
         <v>447</v>
       </c>
       <c r="C448" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="D448" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="E448" t="s">
         <v>12</v>
@@ -15805,10 +15817,10 @@
         <v>12</v>
       </c>
       <c r="G448" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="H448" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -15819,10 +15831,10 @@
         <v>448</v>
       </c>
       <c r="C449" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="D449" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="E449" t="s">
         <v>12</v>
@@ -15831,10 +15843,10 @@
         <v>12</v>
       </c>
       <c r="G449" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="H449" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -15845,22 +15857,22 @@
         <v>449</v>
       </c>
       <c r="C450" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="D450" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E450" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450" t="s">
+        <v>12</v>
+      </c>
+      <c r="G450" t="s">
         <v>1180</v>
       </c>
-      <c r="E450" t="s">
-        <v>12</v>
-      </c>
-      <c r="F450" t="s">
-        <v>12</v>
-      </c>
-      <c r="G450" t="s">
-        <v>1176</v>
-      </c>
       <c r="H450" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -15871,10 +15883,10 @@
         <v>450</v>
       </c>
       <c r="C451" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="D451" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="E451" t="s">
         <v>12</v>
@@ -15883,10 +15895,10 @@
         <v>12</v>
       </c>
       <c r="G451" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="H451" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -15897,10 +15909,10 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="D452" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="E452" t="s">
         <v>12</v>
@@ -15909,10 +15921,10 @@
         <v>12</v>
       </c>
       <c r="G452" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="H452" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -15923,22 +15935,22 @@
         <v>452</v>
       </c>
       <c r="C453" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D453" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E453" t="s">
+        <v>12</v>
+      </c>
+      <c r="F453" t="s">
+        <v>12</v>
+      </c>
+      <c r="G453" t="s">
         <v>1187</v>
       </c>
-      <c r="E453" t="s">
-        <v>12</v>
-      </c>
-      <c r="F453" t="s">
-        <v>12</v>
-      </c>
-      <c r="G453" t="s">
-        <v>1183</v>
-      </c>
       <c r="H453" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -15949,10 +15961,10 @@
         <v>453</v>
       </c>
       <c r="C454" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="D454" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="E454" t="s">
         <v>12</v>
@@ -15961,10 +15973,10 @@
         <v>12</v>
       </c>
       <c r="G454" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="H454" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -15975,10 +15987,10 @@
         <v>454</v>
       </c>
       <c r="C455" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="D455" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="E455" t="s">
         <v>12</v>
@@ -15987,10 +15999,10 @@
         <v>12</v>
       </c>
       <c r="G455" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="H455" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -16001,22 +16013,22 @@
         <v>455</v>
       </c>
       <c r="C456" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="D456" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E456" t="s">
+        <v>12</v>
+      </c>
+      <c r="F456" t="s">
+        <v>12</v>
+      </c>
+      <c r="G456" t="s">
         <v>1194</v>
       </c>
-      <c r="E456" t="s">
-        <v>12</v>
-      </c>
-      <c r="F456" t="s">
-        <v>12</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1190</v>
-      </c>
       <c r="H456" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -16027,10 +16039,10 @@
         <v>456</v>
       </c>
       <c r="C457" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="D457" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="E457" t="s">
         <v>12</v>
@@ -16039,10 +16051,10 @@
         <v>12</v>
       </c>
       <c r="G457" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="H457" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -16053,10 +16065,10 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="D458" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="E458" t="s">
         <v>12</v>
@@ -16065,10 +16077,10 @@
         <v>12</v>
       </c>
       <c r="G458" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="H458" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -16079,10 +16091,10 @@
         <v>458</v>
       </c>
       <c r="C459" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="D459" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="E459" t="s">
         <v>12</v>
@@ -16091,10 +16103,10 @@
         <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="H459" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -16105,10 +16117,10 @@
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="D460" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="E460" t="s">
         <v>12</v>
@@ -16117,10 +16129,10 @@
         <v>12</v>
       </c>
       <c r="G460" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="H460" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -16131,10 +16143,10 @@
         <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="D461" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="E461" t="s">
         <v>12</v>
@@ -16143,10 +16155,10 @@
         <v>12</v>
       </c>
       <c r="G461" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="H461" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16157,10 +16169,10 @@
         <v>461</v>
       </c>
       <c r="C462" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="D462" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="E462" t="s">
         <v>12</v>
@@ -16169,10 +16181,10 @@
         <v>12</v>
       </c>
       <c r="G462" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="H462" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -16183,10 +16195,10 @@
         <v>462</v>
       </c>
       <c r="C463" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="D463" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="E463" t="s">
         <v>12</v>
@@ -16195,10 +16207,10 @@
         <v>12</v>
       </c>
       <c r="G463" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="H463" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -16209,10 +16221,10 @@
         <v>463</v>
       </c>
       <c r="C464" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="D464" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="E464" t="s">
         <v>12</v>
@@ -16221,10 +16233,10 @@
         <v>12</v>
       </c>
       <c r="G464" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="H464" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -16235,10 +16247,10 @@
         <v>464</v>
       </c>
       <c r="C465" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="D465" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="E465" t="s">
         <v>12</v>
@@ -16247,10 +16259,10 @@
         <v>12</v>
       </c>
       <c r="G465" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="H465" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -16261,10 +16273,10 @@
         <v>465</v>
       </c>
       <c r="C466" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D466" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="E466" t="s">
         <v>12</v>
@@ -16273,10 +16285,10 @@
         <v>12</v>
       </c>
       <c r="G466" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="H466" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -16287,10 +16299,10 @@
         <v>466</v>
       </c>
       <c r="C467" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D467" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="E467" t="s">
         <v>12</v>
@@ -16299,10 +16311,10 @@
         <v>12</v>
       </c>
       <c r="G467" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="H467" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -16313,10 +16325,10 @@
         <v>467</v>
       </c>
       <c r="C468" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="D468" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E468" t="s">
         <v>12</v>
@@ -16325,10 +16337,10 @@
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="H468" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -16339,10 +16351,10 @@
         <v>468</v>
       </c>
       <c r="C469" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="D469" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E469" t="s">
         <v>12</v>
@@ -16351,10 +16363,10 @@
         <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="H469" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -16365,22 +16377,22 @@
         <v>469</v>
       </c>
       <c r="C470" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D470" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E470" t="s">
+        <v>12</v>
+      </c>
+      <c r="F470" t="s">
+        <v>12</v>
+      </c>
+      <c r="G470" t="s">
         <v>1228</v>
       </c>
-      <c r="E470" t="s">
-        <v>12</v>
-      </c>
-      <c r="F470" t="s">
-        <v>12</v>
-      </c>
-      <c r="G470" t="s">
-        <v>1224</v>
-      </c>
       <c r="H470" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -16391,10 +16403,10 @@
         <v>470</v>
       </c>
       <c r="C471" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="D471" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="E471" t="s">
         <v>12</v>
@@ -16403,10 +16415,10 @@
         <v>12</v>
       </c>
       <c r="G471" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="H471" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -16417,10 +16429,10 @@
         <v>471</v>
       </c>
       <c r="C472" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="D472" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E472" t="s">
         <v>12</v>
@@ -16429,10 +16441,10 @@
         <v>12</v>
       </c>
       <c r="G472" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="H472" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -16443,10 +16455,10 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="D473" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="E473" t="s">
         <v>12</v>
@@ -16455,10 +16467,10 @@
         <v>12</v>
       </c>
       <c r="G473" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="H473" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -16469,10 +16481,10 @@
         <v>473</v>
       </c>
       <c r="C474" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="D474" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E474" t="s">
         <v>12</v>
@@ -16481,10 +16493,10 @@
         <v>12</v>
       </c>
       <c r="G474" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="H474" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -16495,10 +16507,10 @@
         <v>474</v>
       </c>
       <c r="C475" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="D475" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="E475" t="s">
         <v>12</v>
@@ -16507,10 +16519,10 @@
         <v>12</v>
       </c>
       <c r="G475" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="H475" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -16521,10 +16533,10 @@
         <v>475</v>
       </c>
       <c r="C476" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="D476" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="E476" t="s">
         <v>12</v>
@@ -16533,10 +16545,10 @@
         <v>12</v>
       </c>
       <c r="G476" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="H476" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -16547,10 +16559,10 @@
         <v>476</v>
       </c>
       <c r="C477" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="D477" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="E477" t="s">
         <v>12</v>
@@ -16559,10 +16571,10 @@
         <v>12</v>
       </c>
       <c r="G477" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="H477" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -16576,7 +16588,7 @@
         <v>584460</v>
       </c>
       <c r="D478" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="E478" t="s">
         <v>12</v>
@@ -16585,10 +16597,10 @@
         <v>12</v>
       </c>
       <c r="G478" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H478" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -16599,10 +16611,10 @@
         <v>478</v>
       </c>
       <c r="C479" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="D479" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="E479" t="s">
         <v>12</v>
@@ -16611,10 +16623,10 @@
         <v>12</v>
       </c>
       <c r="G479" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H479" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -16625,10 +16637,10 @@
         <v>479</v>
       </c>
       <c r="C480" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="D480" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="E480" t="s">
         <v>12</v>
@@ -16637,10 +16649,10 @@
         <v>12</v>
       </c>
       <c r="G480" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H480" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -16651,10 +16663,10 @@
         <v>480</v>
       </c>
       <c r="C481" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="D481" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="E481" t="s">
         <v>12</v>
@@ -16663,10 +16675,10 @@
         <v>12</v>
       </c>
       <c r="G481" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H481" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -16677,10 +16689,10 @@
         <v>481</v>
       </c>
       <c r="C482" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="D482" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="E482" t="s">
         <v>12</v>
@@ -16689,10 +16701,10 @@
         <v>12</v>
       </c>
       <c r="G482" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H482" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -16703,10 +16715,10 @@
         <v>482</v>
       </c>
       <c r="C483" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="D483" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="E483" t="s">
         <v>12</v>
@@ -16715,10 +16727,10 @@
         <v>12</v>
       </c>
       <c r="G483" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H483" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -16729,10 +16741,10 @@
         <v>483</v>
       </c>
       <c r="C484" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="D484" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="E484" t="s">
         <v>12</v>
@@ -16741,10 +16753,10 @@
         <v>12</v>
       </c>
       <c r="G484" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H484" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -16755,10 +16767,10 @@
         <v>484</v>
       </c>
       <c r="C485" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="D485" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="E485" t="s">
         <v>12</v>
@@ -16767,10 +16779,10 @@
         <v>12</v>
       </c>
       <c r="G485" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H485" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -16781,10 +16793,10 @@
         <v>485</v>
       </c>
       <c r="C486" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="D486" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="E486" t="s">
         <v>12</v>
@@ -16793,10 +16805,10 @@
         <v>12</v>
       </c>
       <c r="G486" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H486" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -16807,10 +16819,10 @@
         <v>486</v>
       </c>
       <c r="C487" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="D487" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="E487" t="s">
         <v>12</v>
@@ -16819,10 +16831,10 @@
         <v>12</v>
       </c>
       <c r="G487" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H487" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16833,10 +16845,10 @@
         <v>487</v>
       </c>
       <c r="C488" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="D488" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="E488" t="s">
         <v>12</v>
@@ -16845,10 +16857,10 @@
         <v>12</v>
       </c>
       <c r="G488" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H488" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -16859,10 +16871,10 @@
         <v>488</v>
       </c>
       <c r="C489" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="D489" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="E489" t="s">
         <v>12</v>
@@ -16871,10 +16883,10 @@
         <v>12</v>
       </c>
       <c r="G489" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H489" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -16885,10 +16897,10 @@
         <v>489</v>
       </c>
       <c r="C490" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="D490" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="E490" t="s">
         <v>12</v>
@@ -16897,10 +16909,10 @@
         <v>12</v>
       </c>
       <c r="G490" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H490" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16911,10 +16923,10 @@
         <v>490</v>
       </c>
       <c r="C491" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="D491" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="E491" t="s">
         <v>12</v>
@@ -16923,10 +16935,10 @@
         <v>12</v>
       </c>
       <c r="G491" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H491" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -16937,10 +16949,10 @@
         <v>491</v>
       </c>
       <c r="C492" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="D492" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="E492" t="s">
         <v>12</v>
@@ -16949,10 +16961,10 @@
         <v>12</v>
       </c>
       <c r="G492" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H492" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -16963,10 +16975,10 @@
         <v>492</v>
       </c>
       <c r="C493" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="D493" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="E493" t="s">
         <v>12</v>
@@ -16975,10 +16987,10 @@
         <v>12</v>
       </c>
       <c r="G493" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H493" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16992,7 +17004,7 @@
         <v>88892</v>
       </c>
       <c r="D494" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="E494" t="s">
         <v>12</v>
@@ -17001,10 +17013,10 @@
         <v>12</v>
       </c>
       <c r="G494" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H494" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -17018,7 +17030,7 @@
         <v>103481</v>
       </c>
       <c r="D495" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E495" t="s">
         <v>12</v>
@@ -17027,10 +17039,10 @@
         <v>12</v>
       </c>
       <c r="G495" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H495" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -17044,7 +17056,7 @@
         <v>532903</v>
       </c>
       <c r="D496" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="E496" t="s">
         <v>12</v>
@@ -17053,10 +17065,10 @@
         <v>12</v>
       </c>
       <c r="G496" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H496" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -17070,19 +17082,19 @@
         <v>536994</v>
       </c>
       <c r="D497" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="E497" t="s">
         <v>12</v>
       </c>
       <c r="F497" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="G497" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H497" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
